--- a/AP_features_HCM.xlsx
+++ b/AP_features_HCM.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,7 +423,7 @@
         <v>27.38817590013879</v>
       </c>
       <c r="C2">
-        <v>91.32684413680454</v>
+        <v>91.41901007468489</v>
       </c>
       <c r="D2">
         <v>584.7210485126852</v>
@@ -432,7 +432,7 @@
         <v>694.679746384616</v>
       </c>
       <c r="F2">
-        <v>-63.93866823666574</v>
+        <v>-64.0308341745461</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -443,16 +443,16 @@
         <v>32.59580245960078</v>
       </c>
       <c r="C3">
-        <v>98.78254263400031</v>
+        <v>99.43463193036348</v>
       </c>
       <c r="D3">
-        <v>587.4870754305521</v>
+        <v>591.9494528485302</v>
       </c>
       <c r="E3">
-        <v>708.4315967792645</v>
+        <v>712.4472033074999</v>
       </c>
       <c r="F3">
-        <v>-66.18674017439953</v>
+        <v>-66.8388294707627</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -463,16 +463,16 @@
         <v>26.98253527913703</v>
       </c>
       <c r="C4">
-        <v>90.51110301652614</v>
+        <v>90.84575270005827</v>
       </c>
       <c r="D4">
         <v>600.9225288911621</v>
       </c>
       <c r="E4">
-        <v>712.6327807011403</v>
+        <v>714.7780250237483</v>
       </c>
       <c r="F4">
-        <v>-63.5285677373891</v>
+        <v>-63.86321742092124</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -483,16 +483,16 @@
         <v>26.28522917317245</v>
       </c>
       <c r="C5">
-        <v>89.03507607032159</v>
+        <v>89.81532675963722</v>
       </c>
       <c r="D5">
-        <v>606.7536950313079</v>
+        <v>614.4917371347256</v>
       </c>
       <c r="E5">
-        <v>726.233151141394</v>
+        <v>728.3256208126622</v>
       </c>
       <c r="F5">
-        <v>-62.74984689714915</v>
+        <v>-63.53009758646477</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -503,16 +503,16 @@
         <v>21.22146693810163</v>
       </c>
       <c r="C6">
-        <v>87.7297821524934</v>
+        <v>88.15739930769813</v>
       </c>
       <c r="D6">
-        <v>599.0775331902478</v>
+        <v>601.2873257913961</v>
       </c>
       <c r="E6">
-        <v>709.9605547608662</v>
+        <v>713.0590364257514</v>
       </c>
       <c r="F6">
-        <v>-66.50831521439177</v>
+        <v>-66.9359323695965</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -523,16 +523,16 @@
         <v>24.46231699735698</v>
       </c>
       <c r="C7">
-        <v>88.99082278936341</v>
+        <v>89.37562085842431</v>
       </c>
       <c r="D7">
         <v>602.6579316180578</v>
       </c>
       <c r="E7">
-        <v>717.2586437225618</v>
+        <v>719.2459578406779</v>
       </c>
       <c r="F7">
-        <v>-64.52850579200643</v>
+        <v>-64.91330386106733</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -543,16 +543,16 @@
         <v>25.68710016428618</v>
       </c>
       <c r="C8">
-        <v>91.69778487119457</v>
+        <v>92.02678755612524</v>
       </c>
       <c r="D8">
         <v>585.9836157400496</v>
       </c>
       <c r="E8">
-        <v>706.2506697058707</v>
+        <v>710.0709632952712</v>
       </c>
       <c r="F8">
-        <v>-66.01068470690839</v>
+        <v>-66.33968739183906</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -563,16 +563,16 @@
         <v>38.86313610971582</v>
       </c>
       <c r="C9">
-        <v>106.0091119263612</v>
+        <v>106.762168022872</v>
       </c>
       <c r="D9">
         <v>589.1491002250914</v>
       </c>
       <c r="E9">
-        <v>715.7677527214764</v>
+        <v>717.2785339843322</v>
       </c>
       <c r="F9">
-        <v>-67.14597581664536</v>
+        <v>-67.89903191315615</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -583,16 +583,16 @@
         <v>26.58095072104224</v>
       </c>
       <c r="C10">
-        <v>91.29033826790328</v>
+        <v>92.10468494361339</v>
       </c>
       <c r="D10">
         <v>598.0569559522191</v>
       </c>
       <c r="E10">
-        <v>714.064587518289</v>
+        <v>718.8484069063634</v>
       </c>
       <c r="F10">
-        <v>-64.70938754686104</v>
+        <v>-65.52373422257116</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -603,16 +603,116 @@
         <v>28.21309060468631</v>
       </c>
       <c r="C11">
-        <v>90.70638408110383</v>
+        <v>91.20229528038749</v>
       </c>
       <c r="D11">
         <v>595.1897479300751</v>
       </c>
       <c r="E11">
-        <v>715.3118526204926</v>
+        <v>716.8301193683874</v>
       </c>
       <c r="F11">
-        <v>-62.49329347641752</v>
+        <v>-62.98920467570117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>23.097937142722</v>
+      </c>
+      <c r="B12">
+        <v>34.55669426854859</v>
+      </c>
+      <c r="C12">
+        <v>98.654830854718</v>
+      </c>
+      <c r="D12">
+        <v>606.1900211137181</v>
+      </c>
+      <c r="E12">
+        <v>717.1468239030582</v>
+      </c>
+      <c r="F12">
+        <v>-64.09813658616942</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>22.41442948273153</v>
+      </c>
+      <c r="B13">
+        <v>24.0376448342729</v>
+      </c>
+      <c r="C13">
+        <v>92.10332792477286</v>
+      </c>
+      <c r="D13">
+        <v>602.7887915640749</v>
+      </c>
+      <c r="E13">
+        <v>723.8539170100921</v>
+      </c>
+      <c r="F13">
+        <v>-68.06568309049995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>23.21291828102007</v>
+      </c>
+      <c r="B14">
+        <v>29.3157892315373</v>
+      </c>
+      <c r="C14">
+        <v>91.16388161927986</v>
+      </c>
+      <c r="D14">
+        <v>612.005260354752</v>
+      </c>
+      <c r="E14">
+        <v>715.8600652581081</v>
+      </c>
+      <c r="F14">
+        <v>-61.84809238774257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>22.57771358055724</v>
+      </c>
+      <c r="B15">
+        <v>30.23003375105058</v>
+      </c>
+      <c r="C15">
+        <v>97.2969094177204</v>
+      </c>
+      <c r="D15">
+        <v>591.5587662233884</v>
+      </c>
+      <c r="E15">
+        <v>711.6744343013925</v>
+      </c>
+      <c r="F15">
+        <v>-67.06687566666982</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>22.7710239158676</v>
+      </c>
+      <c r="B16">
+        <v>37.09356930516959</v>
+      </c>
+      <c r="C16">
+        <v>102.0511650029572</v>
+      </c>
+      <c r="D16">
+        <v>591.7709066844618</v>
+      </c>
+      <c r="E16">
+        <v>721.1564353569556</v>
+      </c>
+      <c r="F16">
+        <v>-64.9575956977876</v>
       </c>
     </row>
   </sheetData>
